--- a/data/combined_state_demo_data_2016_2022.xlsx
+++ b/data/combined_state_demo_data_2016_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam McMahon\Desktop\General Assembly\Data Science Immersive\dsb-826\Projects\project-4\data\2016-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam McMahon\Desktop\General Assembly\Data Science Immersive\dsb-826\Projects\youth_crime_group_project - Copy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57441BE-61CE-46A4-8325-B0945AD85223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74389A66-79CE-4A98-BDB4-0E9989B16B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{D1250671-9D55-4F94-A1F9-874AE8287DF1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="96">
   <si>
     <t>state</t>
   </si>
@@ -259,9 +259,6 @@
     <t>(1) money wages or salary; (2) net income from nonfarm self-employment; (3) net income from farm self- employment; (4) Social Security or railroad retirement; (5) Supplemental Security Income; (6) public assistance or welfare payments; (7) interest (on savings or bonds); (8) dividends, income from estates or trusts, or net rental income; (9) veterans' payment or unemployment and workmen's compensation; (10) private pensions or government employee pensions; (11) alimony or child support, regular contributions from persons not living in the household, and other periodic income.</t>
   </si>
   <si>
-    <t>total population</t>
-  </si>
-  <si>
     <t>https://www.kff.org/other/state-indicator/distribution-by-raceethnicity/</t>
   </si>
   <si>
@@ -296,6 +293,27 @@
   </si>
   <si>
     <t>&lt;.01</t>
+  </si>
+  <si>
+    <t>crude_rate_suicide</t>
+  </si>
+  <si>
+    <t>crude_rate_od</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention, National Center for Health Statistics. National Vital Statistics System, Mortality 2018-2022 on CDC WONDER Online Database, released in 2024. Data are from the Multiple Cause of Death Files, 2018-2022, as compiled from data provided by the 57 vital statistics jurisdictions through the Vital Statistics Cooperative Program. Accessed at http://wonder.cdc.gov/mcd-icd10-expanded.html on Oct 23, 2024 10:09:50 PM</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention, National Center for Health Statistics. National Vital Statistics System, Mortality 2018-2022 on CDC WONDER Online Database, released in 2024. Data are from the Multiple Cause of Death Files, 2018-2022, as compiled from data provided by the 57 vital statistics jurisdictions through the Vital Statistics Cooperative Program. Accessed at http://wonder.cdc.gov/mcd-icd10-expanded.html on Oct 23, 2024 10:13:14 PM</t>
+  </si>
+  <si>
+    <t>Suicide Deaths Rate by State and Year, 2016 -2022, 15-24 years old</t>
+  </si>
+  <si>
+    <t>Drug Overdose Deaths Rate by State and Year, 2016 -2022, 15-24 years old</t>
+  </si>
+  <si>
+    <t>https://wonder.cdc.gov/wonder/help/mcd-expanded.html</t>
   </si>
 </sst>
 </file>
@@ -655,13 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D685200-54A2-4C3E-8C4B-9FDD6D045E3E}">
-  <dimension ref="A1:R358"/>
+  <dimension ref="A1:T358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,28 +687,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
-      </c>
-      <c r="J1" t="s">
-        <v>87</v>
       </c>
       <c r="K1" t="s">
         <v>54</v>
@@ -716,8 +734,14 @@
       <c r="R1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -743,7 +767,7 @@
         <v>2E-3</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <v>3.9E-2</v>
@@ -772,8 +796,14 @@
       <c r="R2">
         <v>217335.19894696001</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>11.9</v>
+      </c>
+      <c r="T2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -799,7 +829,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3">
         <v>3.6999999999999998E-2</v>
@@ -828,8 +858,14 @@
       <c r="R3">
         <v>193148.79790157601</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>14.2</v>
+      </c>
+      <c r="T3">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -884,8 +920,14 @@
       <c r="R4">
         <v>169855.574268825</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>15.2</v>
+      </c>
+      <c r="T4">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -911,7 +953,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5">
         <v>1.9E-2</v>
@@ -940,8 +982,14 @@
       <c r="R5">
         <v>157202.18062696999</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>14.8</v>
+      </c>
+      <c r="T5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -964,10 +1012,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6">
         <v>1.9E-2</v>
@@ -996,8 +1044,14 @@
       <c r="R6">
         <v>148927.50938281399</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>17</v>
+      </c>
+      <c r="T6">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1020,10 +1074,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>1.7000000000000001E-2</v>
@@ -1052,8 +1106,14 @@
       <c r="R7">
         <v>143217.62932434399</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>14.3</v>
+      </c>
+      <c r="T7">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1139,7 @@
         <v>0.01</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>1.7000000000000001E-2</v>
@@ -1108,8 +1168,14 @@
       <c r="R8">
         <v>139181.917549362</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>14.1</v>
+      </c>
+      <c r="T8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1164,8 +1230,14 @@
       <c r="R9">
         <v>354599.51757532102</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>44.2</v>
+      </c>
+      <c r="T9">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1292,14 @@
       <c r="R10">
         <v>331952.231888226</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>61.6</v>
+      </c>
+      <c r="T10">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1276,8 +1354,14 @@
       <c r="R11">
         <v>315637.68201036099</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>48.2</v>
+      </c>
+      <c r="T11">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1332,8 +1416,14 @@
       <c r="R12">
         <v>304538.80989589402</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1388,8 +1478,14 @@
       <c r="R13">
         <v>287105.37425912998</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>42.3</v>
+      </c>
+      <c r="T13">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1540,14 @@
       <c r="R14">
         <v>282881.34141287598</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>44.3</v>
+      </c>
+      <c r="T14">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1500,8 +1602,14 @@
       <c r="R15">
         <v>280635.49710939202</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>45.6</v>
+      </c>
+      <c r="T15">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1556,8 +1664,14 @@
       <c r="R16">
         <v>438658.73299279902</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="T16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1612,8 +1726,14 @@
       <c r="R17">
         <v>363213.05562377803</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1668,8 +1788,14 @@
       <c r="R18">
         <v>293697.08233159099</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>19</v>
+      </c>
+      <c r="T18">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1724,8 +1850,14 @@
       <c r="R19">
         <v>267616.88571218197</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>15.7</v>
+      </c>
+      <c r="T19">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1751,7 +1883,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20">
         <v>2.4E-2</v>
@@ -1780,8 +1912,14 @@
       <c r="R20">
         <v>250544.95457183401</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>20.2</v>
+      </c>
+      <c r="T20">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1945,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21">
         <v>2.5000000000000001E-2</v>
@@ -1836,8 +1974,14 @@
       <c r="R21">
         <v>232765.834411049</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T21">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +2007,7 @@
         <v>0.04</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22">
         <v>2.3E-2</v>
@@ -1892,8 +2036,14 @@
       <c r="R22">
         <v>217921.89482011701</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1948,8 +2098,14 @@
       <c r="R23">
         <v>194822.92774446699</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>14.2</v>
+      </c>
+      <c r="T23">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2004,8 +2160,14 @@
       <c r="R24">
         <v>174401.62052261599</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>16.7</v>
+      </c>
+      <c r="T24">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2060,8 +2222,14 @@
       <c r="R25">
         <v>154522.83495083699</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T25">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2116,8 +2284,14 @@
       <c r="R26">
         <v>145709.22697926499</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>21.9</v>
+      </c>
+      <c r="T26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2317,7 @@
         <v>0.01</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27">
         <v>2.7E-2</v>
@@ -2172,8 +2346,14 @@
       <c r="R27">
         <v>140198.896653823</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>16.3</v>
+      </c>
+      <c r="T27">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2199,7 +2379,7 @@
         <v>0.01</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28">
         <v>2.7E-2</v>
@@ -2228,8 +2408,14 @@
       <c r="R28">
         <v>135134.591938306</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>22.4</v>
+      </c>
+      <c r="T28">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2255,7 +2441,7 @@
         <v>0.01</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29">
         <v>2.1999999999999999E-2</v>
@@ -2284,8 +2470,14 @@
       <c r="R29">
         <v>130786.063401729</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>15.4</v>
+      </c>
+      <c r="T29">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2340,8 +2532,14 @@
       <c r="R30">
         <v>738501.980014247</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T30">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2396,8 +2594,14 @@
       <c r="R31">
         <v>650386.56321487296</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>9.9</v>
+      </c>
+      <c r="T31">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2452,8 +2656,14 @@
       <c r="R32">
         <v>562502.23087764403</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T32">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2508,8 +2718,14 @@
       <c r="R33">
         <v>536110.72862254304</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>9.6</v>
+      </c>
+      <c r="T33">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2532,10 +2748,10 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34">
         <v>3.3000000000000002E-2</v>
@@ -2564,8 +2780,14 @@
       <c r="R34">
         <v>521103.40726653801</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>9.9</v>
+      </c>
+      <c r="T34">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2588,10 +2810,10 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35">
         <v>3.3000000000000002E-2</v>
@@ -2620,8 +2842,14 @@
       <c r="R35">
         <v>475721.193320664</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T35">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2644,10 +2872,10 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36">
         <v>3.3000000000000002E-2</v>
@@ -2676,8 +2904,14 @@
       <c r="R36">
         <v>439544.16931081802</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>9.1</v>
+      </c>
+      <c r="T36">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2732,8 +2966,14 @@
       <c r="R37">
         <v>546611.97531963198</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>19.2</v>
+      </c>
+      <c r="T37">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2788,8 +3028,14 @@
       <c r="R38">
         <v>475613.775088644</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>24.6</v>
+      </c>
+      <c r="T38">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2844,8 +3090,14 @@
       <c r="R39">
         <v>411694.40011370298</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>26.4</v>
+      </c>
+      <c r="T39">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2900,8 +3152,14 @@
       <c r="R40">
         <v>389875.78357872303</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>25</v>
+      </c>
+      <c r="T40">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2924,10 +3182,10 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41">
         <v>2.8000000000000001E-2</v>
@@ -2956,8 +3214,14 @@
       <c r="R41">
         <v>371962.962933523</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>24.4</v>
+      </c>
+      <c r="T41">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +3247,7 @@
         <v>0.01</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42">
         <v>2.5999999999999999E-2</v>
@@ -3012,8 +3276,14 @@
       <c r="R42">
         <v>346114.17157088901</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>23</v>
+      </c>
+      <c r="T42">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3309,7 @@
         <v>0.01</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43">
         <v>2.5000000000000001E-2</v>
@@ -3068,8 +3338,14 @@
       <c r="R43">
         <v>317127.96193420299</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>22.5</v>
+      </c>
+      <c r="T43">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3095,7 +3371,7 @@
         <v>1E-3</v>
       </c>
       <c r="I44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44">
         <v>5.1999999999999998E-2</v>
@@ -3124,8 +3400,14 @@
       <c r="R44">
         <v>342689.22506917</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>7.5</v>
+      </c>
+      <c r="T44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3433,7 @@
         <v>1E-3</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J45">
         <v>4.9000000000000002E-2</v>
@@ -3180,8 +3462,14 @@
       <c r="R45">
         <v>307588.26677192003</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3236,8 +3524,14 @@
       <c r="R46">
         <v>267623.16474986298</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>6.1</v>
+      </c>
+      <c r="T46">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3263,7 +3557,7 @@
         <v>2E-3</v>
       </c>
       <c r="I47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J47">
         <v>2.5999999999999999E-2</v>
@@ -3292,8 +3586,14 @@
       <c r="R47">
         <v>256126.085832324</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>9.4</v>
+      </c>
+      <c r="T47">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3316,10 +3616,10 @@
         <v>4.7E-2</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J48">
         <v>2.4E-2</v>
@@ -3348,8 +3648,14 @@
       <c r="R48">
         <v>252882.773581919</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T48">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3372,10 +3678,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49">
         <v>2.7E-2</v>
@@ -3404,8 +3710,14 @@
       <c r="R49">
         <v>247159.33835759599</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>10.5</v>
+      </c>
+      <c r="T49">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3428,10 +3740,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J50">
         <v>2.1999999999999999E-2</v>
@@ -3460,8 +3772,14 @@
       <c r="R50">
         <v>241427.03927390301</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>6.9</v>
+      </c>
+      <c r="T50">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3487,7 +3805,7 @@
         <v>1E-3</v>
       </c>
       <c r="I51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J51">
         <v>5.3999999999999999E-2</v>
@@ -3516,8 +3834,14 @@
       <c r="R51">
         <v>359641.99984681403</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T51">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3540,10 +3864,10 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52">
         <v>5.7000000000000002E-2</v>
@@ -3572,8 +3896,14 @@
       <c r="R52">
         <v>322658.14644463599</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>20.7</v>
+      </c>
+      <c r="T52">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3628,8 +3958,14 @@
       <c r="R53">
         <v>281167.57435768901</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="T53">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3655,7 +3991,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J54">
         <v>2.8000000000000001E-2</v>
@@ -3684,8 +4020,14 @@
       <c r="R54">
         <v>271369.221128184</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" t="s">
+        <v>87</v>
+      </c>
+      <c r="T54">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3708,10 +4050,10 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J55">
         <v>2.5000000000000001E-2</v>
@@ -3740,8 +4082,14 @@
       <c r="R55">
         <v>263962.12676162401</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>17.7</v>
+      </c>
+      <c r="T55">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3764,10 +4112,10 @@
         <v>0.04</v>
       </c>
       <c r="H56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J56">
         <v>2.7E-2</v>
@@ -3796,8 +4144,14 @@
       <c r="R56">
         <v>257027.95801515001</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>11.6</v>
+      </c>
+      <c r="T56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3820,10 +4174,10 @@
         <v>0.04</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J57">
         <v>2.7E-2</v>
@@ -3852,8 +4206,14 @@
       <c r="R57">
         <v>246807.438276525</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>9.9</v>
+      </c>
+      <c r="T57">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3876,10 +4236,10 @@
         <v>3.9E-2</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J58">
         <v>5.5E-2</v>
@@ -3908,8 +4268,14 @@
       <c r="R58">
         <v>641893.91531889595</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" t="s">
+        <v>87</v>
+      </c>
+      <c r="T58">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3932,10 +4298,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J59">
         <v>5.5E-2</v>
@@ -3964,8 +4330,14 @@
       <c r="R59">
         <v>629874.47217718395</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" t="s">
+        <v>87</v>
+      </c>
+      <c r="T59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -4020,8 +4392,14 @@
       <c r="R60">
         <v>595207.36116564996</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" t="s">
+        <v>87</v>
+      </c>
+      <c r="T60">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -4047,7 +4425,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J61">
         <v>3.1E-2</v>
@@ -4076,8 +4454,14 @@
       <c r="R61">
         <v>570990.82342608599</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" t="s">
+        <v>87</v>
+      </c>
+      <c r="T61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -4100,10 +4484,10 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J62">
         <v>3.4000000000000002E-2</v>
@@ -4132,8 +4516,14 @@
       <c r="R62">
         <v>555379.099811033</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" t="s">
+        <v>87</v>
+      </c>
+      <c r="T62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -4156,10 +4546,10 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J63">
         <v>2.8000000000000001E-2</v>
@@ -4188,8 +4578,14 @@
       <c r="R63">
         <v>527460.66471570998</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" t="s">
+        <v>87</v>
+      </c>
+      <c r="T63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4212,10 +4608,10 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J64">
         <v>2.3E-2</v>
@@ -4244,8 +4640,14 @@
       <c r="R64">
         <v>506381.66445680702</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" t="s">
+        <v>87</v>
+      </c>
+      <c r="T64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4300,8 +4702,14 @@
       <c r="R65">
         <v>371953.614260623</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>11.9</v>
+      </c>
+      <c r="T65">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -4356,8 +4764,14 @@
       <c r="R66">
         <v>297663.98647338903</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>12.9</v>
+      </c>
+      <c r="T66">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4412,8 +4826,14 @@
       <c r="R67">
         <v>255509.33300399999</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>12.7</v>
+      </c>
+      <c r="T67">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -4468,8 +4888,14 @@
       <c r="R68">
         <v>241243.18716741499</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -4492,10 +4918,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J69">
         <v>2.4E-2</v>
@@ -4524,8 +4950,14 @@
       <c r="R69">
         <v>229287.16438708099</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>12.1</v>
+      </c>
+      <c r="T69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -4548,10 +4980,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J70">
         <v>2.3E-2</v>
@@ -4580,8 +5012,14 @@
       <c r="R70">
         <v>213056.98189505501</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>11.8</v>
+      </c>
+      <c r="T70">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -4604,10 +5042,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J71">
         <v>2.1999999999999999E-2</v>
@@ -4636,8 +5074,14 @@
       <c r="R71">
         <v>197113.95983430801</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>10.7</v>
+      </c>
+      <c r="T71">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -4692,8 +5136,14 @@
       <c r="R72">
         <v>306191.94542415801</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>15</v>
+      </c>
+      <c r="T72">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -4748,8 +5198,14 @@
       <c r="R73">
         <v>254243.64118422999</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="T73">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -4804,8 +5260,14 @@
       <c r="R74">
         <v>215181.10601304701</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>15.6</v>
+      </c>
+      <c r="T74">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -4860,8 +5322,14 @@
       <c r="R75">
         <v>200421.84601474201</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>13.7</v>
+      </c>
+      <c r="T75">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -4884,10 +5352,10 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J76">
         <v>2.5000000000000001E-2</v>
@@ -4916,8 +5384,14 @@
       <c r="R76">
         <v>186666.28042127599</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>14.1</v>
+      </c>
+      <c r="T76">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -4940,10 +5414,10 @@
         <v>0.04</v>
       </c>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J77">
         <v>2.4E-2</v>
@@ -4972,8 +5446,14 @@
       <c r="R77">
         <v>171820.302983025</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>13.5</v>
+      </c>
+      <c r="T77">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -4996,10 +5476,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J78">
         <v>2.3E-2</v>
@@ -5028,8 +5508,14 @@
       <c r="R78">
         <v>161439.05586880399</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>14.8</v>
+      </c>
+      <c r="T78">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5084,8 +5570,14 @@
       <c r="R79">
         <v>833701.38614894997</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>19</v>
+      </c>
+      <c r="T79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5108,7 +5600,7 @@
         <v>0.375</v>
       </c>
       <c r="H80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I80">
         <v>9.7000000000000003E-2</v>
@@ -5140,8 +5632,14 @@
       <c r="R80">
         <v>707129.05118049495</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>14.4</v>
+      </c>
+      <c r="T80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5196,8 +5694,14 @@
       <c r="R81">
         <v>631796.48263716605</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>14.8</v>
+      </c>
+      <c r="T81">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5252,8 +5756,14 @@
       <c r="R82">
         <v>615234.38345803996</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>13.9</v>
+      </c>
+      <c r="T82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -5276,7 +5786,7 @@
         <v>0.379</v>
       </c>
       <c r="H83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I83">
         <v>9.6000000000000002E-2</v>
@@ -5308,8 +5818,14 @@
       <c r="R83">
         <v>604315.85129163403</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <v>11.9</v>
+      </c>
+      <c r="T83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5332,7 +5848,7 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="H84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I84">
         <v>9.6000000000000002E-2</v>
@@ -5364,8 +5880,14 @@
       <c r="R84">
         <v>575458.59304528404</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <v>19.3</v>
+      </c>
+      <c r="T84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -5388,7 +5910,7 @@
         <v>0.376</v>
       </c>
       <c r="H85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I85">
         <v>9.5000000000000001E-2</v>
@@ -5420,8 +5942,14 @@
       <c r="R85">
         <v>544047.176111951</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T85">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -5476,8 +6004,14 @@
       <c r="R86">
         <v>471894.01422749902</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>22.4</v>
+      </c>
+      <c r="T86">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -5532,8 +6066,14 @@
       <c r="R87">
         <v>412975.75177299598</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="T87">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -5588,8 +6128,14 @@
       <c r="R88">
         <v>309840.08185066102</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>26.3</v>
+      </c>
+      <c r="T88">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -5615,7 +6161,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J89">
         <v>2.5999999999999999E-2</v>
@@ -5644,8 +6190,14 @@
       <c r="R89">
         <v>272612.027092395</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>21.9</v>
+      </c>
+      <c r="T89">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -5671,7 +6223,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J90">
         <v>2.1999999999999999E-2</v>
@@ -5700,8 +6252,14 @@
       <c r="R90">
         <v>243811.14786578901</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>32.6</v>
+      </c>
+      <c r="T90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -5727,7 +6285,7 @@
         <v>0.01</v>
       </c>
       <c r="I91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J91">
         <v>2.5000000000000001E-2</v>
@@ -5756,8 +6314,14 @@
       <c r="R91">
         <v>218574.17724631901</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>23.9</v>
+      </c>
+      <c r="T91">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -5783,7 +6347,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J92">
         <v>0.02</v>
@@ -5812,8 +6376,14 @@
       <c r="R92">
         <v>200402.829359214</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>23</v>
+      </c>
+      <c r="T92">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -5868,8 +6438,14 @@
       <c r="R93">
         <v>240521.798797903</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>11.5</v>
+      </c>
+      <c r="T93">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -5924,8 +6500,14 @@
       <c r="R94">
         <v>219795.716654313</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <v>11.8</v>
+      </c>
+      <c r="T94">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -5980,8 +6562,14 @@
       <c r="R95">
         <v>198998.13554041699</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <v>12.1</v>
+      </c>
+      <c r="T95">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -6007,7 +6595,7 @@
         <v>1E-3</v>
       </c>
       <c r="I96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J96">
         <v>2.1999999999999999E-2</v>
@@ -6036,8 +6624,14 @@
       <c r="R96">
         <v>192383.43308447601</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <v>10.5</v>
+      </c>
+      <c r="T96">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -6060,10 +6654,10 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J97">
         <v>2.1999999999999999E-2</v>
@@ -6092,8 +6686,14 @@
       <c r="R97">
         <v>187366.36715794</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <v>10.6</v>
+      </c>
+      <c r="T97">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -6116,10 +6716,10 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J98">
         <v>2.1000000000000001E-2</v>
@@ -6148,8 +6748,14 @@
       <c r="R98">
         <v>179393.311292634</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <v>12.6</v>
+      </c>
+      <c r="T98">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -6172,10 +6778,10 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J99">
         <v>1.9E-2</v>
@@ -6204,8 +6810,14 @@
       <c r="R99">
         <v>171464.99502386199</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>10.1</v>
+      </c>
+      <c r="T99">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -6260,8 +6872,14 @@
       <c r="R100">
         <v>220388.436260027</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <v>13.7</v>
+      </c>
+      <c r="T100">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -6287,7 +6905,7 @@
         <v>1E-3</v>
       </c>
       <c r="I101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J101">
         <v>4.4999999999999998E-2</v>
@@ -6316,8 +6934,14 @@
       <c r="R101">
         <v>194269.789517914</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>18.3</v>
+      </c>
+      <c r="T101">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -6372,8 +6996,14 @@
       <c r="R102">
         <v>168872.599862217</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="T102">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -6399,7 +7029,7 @@
         <v>2E-3</v>
       </c>
       <c r="I103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J103">
         <v>2.3E-2</v>
@@ -6428,8 +7058,14 @@
       <c r="R103">
         <v>156859.74396419199</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <v>12.6</v>
+      </c>
+      <c r="T103">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -6452,10 +7088,10 @@
         <v>2.3E-2</v>
       </c>
       <c r="H104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J104">
         <v>2.1999999999999999E-2</v>
@@ -6484,8 +7120,14 @@
       <c r="R104">
         <v>146742.00918114401</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="T104">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -6508,10 +7150,10 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J105">
         <v>2.4E-2</v>
@@ -6540,8 +7182,14 @@
       <c r="R105">
         <v>136933.578848187</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <v>16.7</v>
+      </c>
+      <c r="T105">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -6564,10 +7212,10 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J106">
         <v>2.1000000000000001E-2</v>
@@ -6596,8 +7244,14 @@
       <c r="R106">
         <v>129575.70491092</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <v>15.7</v>
+      </c>
+      <c r="T106">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6652,8 +7306,14 @@
       <c r="R107">
         <v>202868.09346316801</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="T107">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6708,8 +7368,14 @@
       <c r="R108">
         <v>183393.951237189</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <v>15.9</v>
+      </c>
+      <c r="T108">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6764,8 +7430,14 @@
       <c r="R109">
         <v>167728.40246902499</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T109">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6791,7 +7463,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J110">
         <v>1.9E-2</v>
@@ -6820,8 +7492,14 @@
       <c r="R110">
         <v>160042.29043472701</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T110">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6844,10 +7522,10 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J111">
         <v>0.02</v>
@@ -6876,8 +7554,14 @@
       <c r="R111">
         <v>152433.20843993401</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <v>14.9</v>
+      </c>
+      <c r="T111">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6900,10 +7584,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="H112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J112">
         <v>0.02</v>
@@ -6932,8 +7616,14 @@
       <c r="R112">
         <v>146369.89610169901</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <v>16.2</v>
+      </c>
+      <c r="T112">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6956,10 +7646,10 @@
         <v>2.4E-2</v>
       </c>
       <c r="H113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J113">
         <v>1.7000000000000001E-2</v>
@@ -6988,8 +7678,14 @@
       <c r="R113">
         <v>141827.57420618701</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <v>14.1</v>
+      </c>
+      <c r="T113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>55</v>
       </c>
@@ -7015,7 +7711,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J114">
         <v>5.5E-2</v>
@@ -7044,8 +7740,14 @@
       <c r="R114">
         <v>203653.69576695401</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <v>23</v>
+      </c>
+      <c r="T114">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -7071,7 +7773,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J115">
         <v>5.6000000000000001E-2</v>
@@ -7100,8 +7802,14 @@
       <c r="R115">
         <v>181244.12963623099</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115">
+        <v>23</v>
+      </c>
+      <c r="T115">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -7156,8 +7864,14 @@
       <c r="R116">
         <v>161331.46552474599</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <v>22.9</v>
+      </c>
+      <c r="T116">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -7183,7 +7897,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J117">
         <v>3.2000000000000001E-2</v>
@@ -7212,8 +7926,14 @@
       <c r="R117">
         <v>149943.540938761</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <v>20.6</v>
+      </c>
+      <c r="T117">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>55</v>
       </c>
@@ -7239,7 +7959,7 @@
         <v>0.01</v>
       </c>
       <c r="I118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J118">
         <v>3.2000000000000001E-2</v>
@@ -7268,8 +7988,14 @@
       <c r="R118">
         <v>142936.71278077</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <v>24.7</v>
+      </c>
+      <c r="T118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -7295,7 +8021,7 @@
         <v>0.01</v>
       </c>
       <c r="I119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J119">
         <v>0.03</v>
@@ -7324,8 +8050,14 @@
       <c r="R119">
         <v>136262.90239643399</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <v>22.4</v>
+      </c>
+      <c r="T119">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>55</v>
       </c>
@@ -7351,7 +8083,7 @@
         <v>0.01</v>
       </c>
       <c r="I120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J120">
         <v>2.9000000000000001E-2</v>
@@ -7380,8 +8112,14 @@
       <c r="R120">
         <v>131386.13126318299</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <v>17.3</v>
+      </c>
+      <c r="T120">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -7407,7 +8145,7 @@
         <v>1E-3</v>
       </c>
       <c r="I121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J121">
         <v>4.4999999999999998E-2</v>
@@ -7436,8 +8174,14 @@
       <c r="R121">
         <v>188212.77435635301</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T121">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -7463,7 +8207,7 @@
         <v>2E-3</v>
       </c>
       <c r="I122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J122">
         <v>4.7E-2</v>
@@ -7492,8 +8236,14 @@
       <c r="R122">
         <v>169731.99318650301</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="T122">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -7548,8 +8298,14 @@
       <c r="R123">
         <v>150143.793508348</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <v>17.5</v>
+      </c>
+      <c r="T123">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -7575,7 +8331,7 @@
         <v>1E-3</v>
       </c>
       <c r="I124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J124">
         <v>0.02</v>
@@ -7604,8 +8360,14 @@
       <c r="R124">
         <v>139848.050431187</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <v>14.7</v>
+      </c>
+      <c r="T124">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -7628,10 +8390,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J125">
         <v>2.3E-2</v>
@@ -7660,8 +8422,14 @@
       <c r="R125">
         <v>132370.832561416</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <v>17.8</v>
+      </c>
+      <c r="T125">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -7684,10 +8452,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H126" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J126">
         <v>2.1999999999999999E-2</v>
@@ -7716,8 +8484,14 @@
       <c r="R126">
         <v>124914.85879830499</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <v>13.7</v>
+      </c>
+      <c r="T126">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -7740,10 +8514,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="H127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J127">
         <v>1.7999999999999999E-2</v>
@@ -7772,8 +8546,14 @@
       <c r="R127">
         <v>118772.70111571399</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127">
+        <v>15.7</v>
+      </c>
+      <c r="T127">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -7799,7 +8579,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J128">
         <v>4.3999999999999997E-2</v>
@@ -7828,8 +8608,14 @@
       <c r="R128">
         <v>208826.35978709199</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <v>14.4</v>
+      </c>
+      <c r="T128">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -7855,7 +8641,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J129">
         <v>4.3999999999999997E-2</v>
@@ -7884,8 +8670,14 @@
       <c r="R129">
         <v>198002.94525618901</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129">
+        <v>16</v>
+      </c>
+      <c r="T129">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -7940,8 +8732,14 @@
       <c r="R130">
         <v>188339.46829630999</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <v>12.6</v>
+      </c>
+      <c r="T130">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -7967,7 +8765,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J131">
         <v>1.9E-2</v>
@@ -7996,8 +8794,14 @@
       <c r="R131">
         <v>179519.282185463</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="T131">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -8023,7 +8827,7 @@
         <v>0.01</v>
       </c>
       <c r="I132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J132">
         <v>2.3E-2</v>
@@ -8052,8 +8856,14 @@
       <c r="R132">
         <v>173800.58999952101</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132">
+        <v>15.2</v>
+      </c>
+      <c r="T132">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -8079,7 +8889,7 @@
         <v>0.01</v>
       </c>
       <c r="I133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J133">
         <v>1.9E-2</v>
@@ -8108,8 +8918,14 @@
       <c r="R133">
         <v>171363.370101579</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <v>14.9</v>
+      </c>
+      <c r="T133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -8135,7 +8951,7 @@
         <v>0.01</v>
       </c>
       <c r="I134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J134">
         <v>1.7000000000000001E-2</v>
@@ -8164,8 +8980,14 @@
       <c r="R134">
         <v>172156.19131990199</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <v>14.8</v>
+      </c>
+      <c r="T134">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -8191,7 +9013,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I135" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J135">
         <v>4.4999999999999998E-2</v>
@@ -8220,8 +9042,14 @@
       <c r="R135">
         <v>358122.02602128102</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <v>12.7</v>
+      </c>
+      <c r="T135">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -8247,7 +9075,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I136" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J136">
         <v>5.2999999999999999E-2</v>
@@ -8276,8 +9104,14 @@
       <c r="R136">
         <v>311270.97492799402</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <v>16.2</v>
+      </c>
+      <c r="T136">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -8332,8 +9166,14 @@
       <c r="R137">
         <v>257755.17021973501</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <v>17.2</v>
+      </c>
+      <c r="T137">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -8359,7 +9199,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J138">
         <v>1.9E-2</v>
@@ -8388,8 +9228,14 @@
       <c r="R138">
         <v>236456.37615433201</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <v>17.7</v>
+      </c>
+      <c r="T138">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -8412,10 +9258,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="H139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J139">
         <v>2.1000000000000001E-2</v>
@@ -8444,8 +9290,14 @@
       <c r="R139">
         <v>225420.50243082599</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <v>19</v>
+      </c>
+      <c r="T139">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -8471,7 +9323,7 @@
         <v>0.01</v>
       </c>
       <c r="I140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J140">
         <v>1.9E-2</v>
@@ -8500,8 +9352,14 @@
       <c r="R140">
         <v>211392.243531741</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <v>13.5</v>
+      </c>
+      <c r="T140">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -8527,7 +9385,7 @@
         <v>0.01</v>
       </c>
       <c r="I141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J141">
         <v>1.6E-2</v>
@@ -8556,8 +9414,14 @@
       <c r="R141">
         <v>198263.78386940499</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <v>22.2</v>
+      </c>
+      <c r="T141">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -8583,7 +9447,7 @@
         <v>1E-3</v>
       </c>
       <c r="I142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J142">
         <v>5.3999999999999999E-2</v>
@@ -8612,8 +9476,14 @@
       <c r="R142">
         <v>396489.44435122499</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <v>10.9</v>
+      </c>
+      <c r="T142">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -8668,8 +9538,14 @@
       <c r="R143">
         <v>368780.62866114802</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143">
+        <v>11.6</v>
+      </c>
+      <c r="T143">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -8724,8 +9600,14 @@
       <c r="R144">
         <v>329988.15880334697</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T144">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -8751,7 +9633,7 @@
         <v>2E-3</v>
       </c>
       <c r="I145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J145">
         <v>3.2000000000000001E-2</v>
@@ -8780,8 +9662,14 @@
       <c r="R145">
         <v>315086.488240765</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <v>10.5</v>
+      </c>
+      <c r="T145">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -8804,10 +9692,10 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H146" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J146">
         <v>3.4000000000000002E-2</v>
@@ -8836,8 +9724,14 @@
       <c r="R146">
         <v>304548.689404451</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <v>11.9</v>
+      </c>
+      <c r="T146">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -8860,10 +9754,10 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="H147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J147">
         <v>3.1E-2</v>
@@ -8892,8 +9786,14 @@
       <c r="R147">
         <v>294184.68546514498</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147">
+        <v>10</v>
+      </c>
+      <c r="T147">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -8916,10 +9816,10 @@
         <v>6.3E-2</v>
       </c>
       <c r="H148" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I148" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J148">
         <v>0.03</v>
@@ -8948,8 +9848,14 @@
       <c r="R148">
         <v>283953.01698701299</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <v>8.6</v>
+      </c>
+      <c r="T148">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -8975,7 +9881,7 @@
         <v>1E-3</v>
       </c>
       <c r="I149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J149">
         <v>0.06</v>
@@ -9004,8 +9910,14 @@
       <c r="R149">
         <v>556942.65191226895</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <v>7.8</v>
+      </c>
+      <c r="T149">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -9031,7 +9943,7 @@
         <v>1E-3</v>
       </c>
       <c r="I150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J150">
         <v>6.3E-2</v>
@@ -9060,8 +9972,14 @@
       <c r="R150">
         <v>504870.52170680498</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <v>7.2</v>
+      </c>
+      <c r="T150">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -9116,8 +10034,14 @@
       <c r="R151">
         <v>443372.579088534</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151">
+        <v>7.6</v>
+      </c>
+      <c r="T151">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -9143,7 +10067,7 @@
         <v>2E-3</v>
       </c>
       <c r="I152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J152">
         <v>3.2000000000000001E-2</v>
@@ -9172,8 +10096,14 @@
       <c r="R152">
         <v>421752.54992684303</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <v>7.1</v>
+      </c>
+      <c r="T152">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -9196,10 +10126,10 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J153">
         <v>2.9000000000000001E-2</v>
@@ -9228,8 +10158,14 @@
       <c r="R153">
         <v>410211.52925612201</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <v>8.4</v>
+      </c>
+      <c r="T153">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -9252,10 +10188,10 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I154" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J154">
         <v>2.9000000000000001E-2</v>
@@ -9284,8 +10220,14 @@
       <c r="R154">
         <v>386046.58345238701</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154">
+        <v>8.4</v>
+      </c>
+      <c r="T154">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -9308,10 +10250,10 @@
         <v>6.3E-2</v>
       </c>
       <c r="H155" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I155" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J155">
         <v>2.8000000000000001E-2</v>
@@ -9340,8 +10282,14 @@
       <c r="R155">
         <v>361931.30715330498</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T155">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -9396,8 +10344,14 @@
       <c r="R156">
         <v>228016.435675833</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156">
+        <v>13.9</v>
+      </c>
+      <c r="T156">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -9452,8 +10406,14 @@
       <c r="R157">
         <v>206833.96543581699</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157">
+        <v>15.3</v>
+      </c>
+      <c r="T157">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -9508,8 +10468,14 @@
       <c r="R158">
         <v>180294.868287244</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158">
+        <v>14.6</v>
+      </c>
+      <c r="T158">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -9535,7 +10501,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I159" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J159">
         <v>2.7E-2</v>
@@ -9564,8 +10530,14 @@
       <c r="R159">
         <v>169404.08942725501</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159">
+        <v>13.3</v>
+      </c>
+      <c r="T159">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -9588,10 +10560,10 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H160" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J160">
         <v>2.5999999999999999E-2</v>
@@ -9620,8 +10592,14 @@
       <c r="R160">
         <v>159393.148484106</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160">
+        <v>16.8</v>
+      </c>
+      <c r="T160">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -9644,10 +10622,10 @@
         <v>3.1E-2</v>
       </c>
       <c r="H161" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J161">
         <v>2.5999999999999999E-2</v>
@@ -9676,8 +10654,14 @@
       <c r="R161">
         <v>147892.20686105301</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161">
+        <v>14.2</v>
+      </c>
+      <c r="T161">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>23</v>
       </c>
@@ -9700,10 +10684,10 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H162" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I162" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J162">
         <v>2.7E-2</v>
@@ -9732,8 +10716,14 @@
       <c r="R162">
         <v>137536.61853680099</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162">
+        <v>14.7</v>
+      </c>
+      <c r="T162">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -9759,7 +10749,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I163" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J163">
         <v>5.5E-2</v>
@@ -9788,8 +10778,14 @@
       <c r="R163">
         <v>325231.72543231701</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163">
+        <v>15.2</v>
+      </c>
+      <c r="T163">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -9815,7 +10811,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I164" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J164">
         <v>4.9000000000000002E-2</v>
@@ -9844,8 +10840,14 @@
       <c r="R164">
         <v>298790.61454432399</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164">
+        <v>15.1</v>
+      </c>
+      <c r="T164">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>24</v>
       </c>
@@ -9900,8 +10902,14 @@
       <c r="R165">
         <v>266296.47131695203</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S165">
+        <v>13.7</v>
+      </c>
+      <c r="T165">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>24</v>
       </c>
@@ -9927,7 +10935,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I166" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J166">
         <v>0.03</v>
@@ -9956,8 +10964,14 @@
       <c r="R166">
         <v>252044.006374591</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166">
+        <v>15.6</v>
+      </c>
+      <c r="T166">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -9983,7 +10997,7 @@
         <v>0.01</v>
       </c>
       <c r="I167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J167">
         <v>2.8000000000000001E-2</v>
@@ -10012,8 +11026,14 @@
       <c r="R167">
         <v>239466.763745251</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167">
+        <v>15.5</v>
+      </c>
+      <c r="T167">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>24</v>
       </c>
@@ -10039,7 +11059,7 @@
         <v>0.01</v>
       </c>
       <c r="I168" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J168">
         <v>2.5999999999999999E-2</v>
@@ -10068,8 +11088,14 @@
       <c r="R168">
         <v>224271.10659164999</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168">
+        <v>15.8</v>
+      </c>
+      <c r="T168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -10095,7 +11121,7 @@
         <v>0.01</v>
       </c>
       <c r="I169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J169">
         <v>2.5999999999999999E-2</v>
@@ -10124,8 +11150,14 @@
       <c r="R169">
         <v>209669.29190687501</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169">
+        <v>14.1</v>
+      </c>
+      <c r="T169">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>25</v>
       </c>
@@ -10151,7 +11183,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I170" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J170">
         <v>3.5000000000000003E-2</v>
@@ -10180,8 +11212,14 @@
       <c r="R170">
         <v>178507.959354113</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S170">
+        <v>10.8</v>
+      </c>
+      <c r="T170">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>25</v>
       </c>
@@ -10207,7 +11245,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J171">
         <v>0.04</v>
@@ -10236,8 +11274,14 @@
       <c r="R171">
         <v>162178.337248489</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171">
+        <v>16.2</v>
+      </c>
+      <c r="T171">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>25</v>
       </c>
@@ -10292,8 +11336,14 @@
       <c r="R172">
         <v>145332.868042902</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172">
+        <v>12.3</v>
+      </c>
+      <c r="T172">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>25</v>
       </c>
@@ -10319,7 +11369,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I173" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J173">
         <v>1.4E-2</v>
@@ -10348,8 +11398,14 @@
       <c r="R173">
         <v>138591.28537380701</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173">
+        <v>13.4</v>
+      </c>
+      <c r="T173">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -10372,10 +11428,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H174" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I174" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J174">
         <v>1.4E-2</v>
@@ -10404,8 +11460,14 @@
       <c r="R174">
         <v>133841.93728201999</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174">
+        <v>14.1</v>
+      </c>
+      <c r="T174">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>25</v>
       </c>
@@ -10428,10 +11490,10 @@
         <v>0.01</v>
       </c>
       <c r="H175" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J175">
         <v>1.2E-2</v>
@@ -10460,8 +11522,14 @@
       <c r="R175">
         <v>130735.239458995</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175">
+        <v>13.2</v>
+      </c>
+      <c r="T175">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>25</v>
       </c>
@@ -10484,10 +11552,10 @@
         <v>0.01</v>
       </c>
       <c r="H176" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J176">
         <v>1.0999999999999999E-2</v>
@@ -10516,8 +11584,14 @@
       <c r="R176">
         <v>128885.774075867</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176">
+        <v>12.8</v>
+      </c>
+      <c r="T176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -10572,8 +11646,14 @@
       <c r="R177">
         <v>227423.077341761</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S177">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="T177">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -10628,8 +11708,14 @@
       <c r="R178">
         <v>201609.92617492899</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S178">
+        <v>20.5</v>
+      </c>
+      <c r="T178">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -10684,8 +11770,14 @@
       <c r="R179">
         <v>175660.40672193299</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179">
+        <v>19.8</v>
+      </c>
+      <c r="T179">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>26</v>
       </c>
@@ -10740,8 +11832,14 @@
       <c r="R180">
         <v>164562.162442587</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180">
+        <v>20.5</v>
+      </c>
+      <c r="T180">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -10764,10 +11862,10 @@
         <v>0.02</v>
       </c>
       <c r="H181" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I181" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J181">
         <v>2.5999999999999999E-2</v>
@@ -10796,8 +11894,14 @@
       <c r="R181">
         <v>156695.00618955799</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181">
+        <v>21.2</v>
+      </c>
+      <c r="T181">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -10820,10 +11924,10 @@
         <v>0.02</v>
       </c>
       <c r="H182" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I182" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J182">
         <v>2.5000000000000001E-2</v>
@@ -10852,8 +11956,14 @@
       <c r="R182">
         <v>148325.091759111</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182">
+        <v>21</v>
+      </c>
+      <c r="T182">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -10876,10 +11986,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="H183" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J183">
         <v>2.4E-2</v>
@@ -10908,8 +12018,14 @@
       <c r="R183">
         <v>140590.52988889601</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183">
+        <v>19.3</v>
+      </c>
+      <c r="T183">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -10935,7 +12051,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I184" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J184">
         <v>5.8000000000000003E-2</v>
@@ -10964,8 +12080,14 @@
       <c r="R184">
         <v>442839.355794659</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S184">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T184">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -10991,7 +12113,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="I185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J185">
         <v>5.3999999999999999E-2</v>
@@ -11020,8 +12142,14 @@
       <c r="R185">
         <v>366372.40467553999</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185">
+        <v>44.6</v>
+      </c>
+      <c r="T185">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>27</v>
       </c>
@@ -11076,8 +12204,14 @@
       <c r="R186">
         <v>294102.829908791</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S186">
+        <v>33.6</v>
+      </c>
+      <c r="T186">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>27</v>
       </c>
@@ -11103,7 +12237,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="I187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J187">
         <v>2.8000000000000001E-2</v>
@@ -11132,8 +12266,14 @@
       <c r="R187">
         <v>271932.391017241</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S187">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="T187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>27</v>
       </c>
@@ -11147,7 +12287,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="E188" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F188">
         <v>3.9E-2</v>
@@ -11159,7 +12299,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="I188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J188">
         <v>3.1E-2</v>
@@ -11188,8 +12328,14 @@
       <c r="R188">
         <v>258121.64197600499</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S188">
+        <v>29.3</v>
+      </c>
+      <c r="T188">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>27</v>
       </c>
@@ -11203,7 +12349,7 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="E189" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F189">
         <v>3.5999999999999997E-2</v>
@@ -11215,7 +12361,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J189">
         <v>2.9000000000000001E-2</v>
@@ -11244,8 +12390,14 @@
       <c r="R189">
         <v>243461.55679488901</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S189">
+        <v>31.6</v>
+      </c>
+      <c r="T189">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>27</v>
       </c>
@@ -11259,7 +12411,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="E190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F190">
         <v>3.5000000000000003E-2</v>
@@ -11271,7 +12423,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="I190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J190">
         <v>2.7E-2</v>
@@ -11300,8 +12452,14 @@
       <c r="R190">
         <v>232530.24870924</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S190">
+        <v>29.2</v>
+      </c>
+      <c r="T190" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>28</v>
       </c>
@@ -11327,7 +12485,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J191">
         <v>4.7E-2</v>
@@ -11356,8 +12514,14 @@
       <c r="R191">
         <v>237003.48887296501</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S191">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="T191">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>28</v>
       </c>
@@ -11383,7 +12547,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J192">
         <v>4.3999999999999997E-2</v>
@@ -11412,8 +12576,14 @@
       <c r="R192">
         <v>213378.29585282199</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S192">
+        <v>15.3</v>
+      </c>
+      <c r="T192">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -11468,8 +12638,14 @@
       <c r="R193">
         <v>189029.590070429</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S193">
+        <v>14.2</v>
+      </c>
+      <c r="T193">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>28</v>
       </c>
@@ -11495,7 +12671,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J194">
         <v>2.1000000000000001E-2</v>
@@ -11524,8 +12700,14 @@
       <c r="R194">
         <v>177106.51917640399</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S194">
+        <v>15.3</v>
+      </c>
+      <c r="T194">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>28</v>
       </c>
@@ -11551,7 +12733,7 @@
         <v>0.01</v>
       </c>
       <c r="I195" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J195">
         <v>2.9000000000000001E-2</v>
@@ -11580,8 +12762,14 @@
       <c r="R195">
         <v>167798.90958092199</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S195">
+        <v>13.4</v>
+      </c>
+      <c r="T195" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>28</v>
       </c>
@@ -11607,7 +12795,7 @@
         <v>0.01</v>
       </c>
       <c r="I196" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J196">
         <v>2.3E-2</v>
@@ -11636,8 +12824,14 @@
       <c r="R196">
         <v>157906.123025537</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S196">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="T196">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>28</v>
       </c>
@@ -11663,7 +12857,7 @@
         <v>0.01</v>
       </c>
       <c r="I197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J197">
         <v>0.02</v>
@@ -11692,8 +12886,14 @@
       <c r="R197">
         <v>149703.04321062399</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S197">
+        <v>16</v>
+      </c>
+      <c r="T197" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>29</v>
       </c>
@@ -11748,8 +12948,14 @@
       <c r="R198">
         <v>435313.51720621297</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S198">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>29</v>
       </c>
@@ -11804,8 +13010,14 @@
       <c r="R199">
         <v>362795.72797052399</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S199">
+        <v>25.2</v>
+      </c>
+      <c r="T199">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>29</v>
       </c>
@@ -11860,8 +13072,14 @@
       <c r="R200">
         <v>311969.83371680998</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S200">
+        <v>19.5</v>
+      </c>
+      <c r="T200">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>29</v>
       </c>
@@ -11916,8 +13134,14 @@
       <c r="R201">
         <v>300435.934197594</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S201">
+        <v>17.5</v>
+      </c>
+      <c r="T201">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>29</v>
       </c>
@@ -11972,8 +13196,14 @@
       <c r="R202">
         <v>280388.22478788003</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S202">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="T202">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -12028,8 +13258,14 @@
       <c r="R203">
         <v>245969.15674226201</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S203">
+        <v>21.2</v>
+      </c>
+      <c r="T203">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>29</v>
       </c>
@@ -12084,8 +13320,14 @@
       <c r="R204">
         <v>224915.732285123</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S204">
+        <v>14.9</v>
+      </c>
+      <c r="T204">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -12111,7 +13353,7 @@
         <v>1E-3</v>
       </c>
       <c r="I205" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J205">
         <v>4.7E-2</v>
@@ -12140,8 +13382,14 @@
       <c r="R205">
         <v>413106.15512955497</v>
       </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S205">
+        <v>11.8</v>
+      </c>
+      <c r="T205">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -12164,10 +13412,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="H206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J206">
         <v>4.2999999999999997E-2</v>
@@ -12196,8 +13444,14 @@
       <c r="R206">
         <v>359487.15135056502</v>
       </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S206">
+        <v>13.4</v>
+      </c>
+      <c r="T206">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>30</v>
       </c>
@@ -12252,8 +13506,14 @@
       <c r="R207">
         <v>302814.19805146899</v>
       </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S207">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T207">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>30</v>
       </c>
@@ -12276,10 +13536,10 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H208" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I208" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J208">
         <v>2.1000000000000001E-2</v>
@@ -12308,8 +13568,14 @@
       <c r="R208">
         <v>281235.18578762002</v>
       </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S208">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T208">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>30</v>
       </c>
@@ -12332,10 +13598,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J209">
         <v>1.7999999999999999E-2</v>
@@ -12364,8 +13630,14 @@
       <c r="R209">
         <v>269097.56904854398</v>
       </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S209">
+        <v>17.7</v>
+      </c>
+      <c r="T209">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>30</v>
       </c>
@@ -12388,10 +13660,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="H210" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I210" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J210">
         <v>1.6E-2</v>
@@ -12420,8 +13692,14 @@
       <c r="R210">
         <v>252063.56156501401</v>
       </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S210">
+        <v>23.9</v>
+      </c>
+      <c r="T210">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>30</v>
       </c>
@@ -12444,10 +13722,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H211" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I211" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J211">
         <v>1.7999999999999999E-2</v>
@@ -12476,8 +13754,14 @@
       <c r="R211">
         <v>237175.276925693</v>
       </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S211">
+        <v>17.5</v>
+      </c>
+      <c r="T211">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -12503,7 +13787,7 @@
         <v>1E-3</v>
       </c>
       <c r="I212" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J212">
         <v>4.5999999999999999E-2</v>
@@ -12532,8 +13816,14 @@
       <c r="R212">
         <v>457660.19454078301</v>
       </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S212">
+        <v>7.1</v>
+      </c>
+      <c r="T212">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -12588,8 +13878,14 @@
       <c r="R213">
         <v>414428.75190548698</v>
       </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S213">
+        <v>7.6</v>
+      </c>
+      <c r="T213">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>31</v>
       </c>
@@ -12644,8 +13940,14 @@
       <c r="R214">
         <v>364930.70643283398</v>
       </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S214">
+        <v>6.9</v>
+      </c>
+      <c r="T214">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -12671,7 +13973,7 @@
         <v>1E-3</v>
       </c>
       <c r="I215" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J215">
         <v>2.4E-2</v>
@@ -12700,8 +14002,14 @@
       <c r="R215">
         <v>345727.38697023602</v>
       </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>31</v>
       </c>
@@ -12724,10 +14032,10 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="H216" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I216" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J216">
         <v>2.1000000000000001E-2</v>
@@ -12756,8 +14064,14 @@
       <c r="R216">
         <v>332596.937816085</v>
       </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S216">
+        <v>8.5</v>
+      </c>
+      <c r="T216">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -12780,10 +14094,10 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H217" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I217" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J217">
         <v>2.1000000000000001E-2</v>
@@ -12812,8 +14126,14 @@
       <c r="R217">
         <v>318909.77209756902</v>
       </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S217">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="T217">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -12836,10 +14156,10 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H218" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I218" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J218">
         <v>2.1999999999999999E-2</v>
@@ -12868,8 +14188,14 @@
       <c r="R218">
         <v>309041.98121774301</v>
       </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S218">
+        <v>6.5</v>
+      </c>
+      <c r="T218">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -12895,7 +14221,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="I219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J219">
         <v>3.5000000000000003E-2</v>
@@ -12924,8 +14250,14 @@
       <c r="R219">
         <v>277305.59581200499</v>
       </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S219">
+        <v>25.3</v>
+      </c>
+      <c r="T219">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -12951,7 +14283,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="I220" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J220">
         <v>3.6999999999999998E-2</v>
@@ -12980,8 +14312,14 @@
       <c r="R220">
         <v>242685.718156647</v>
       </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S220">
+        <v>29.3</v>
+      </c>
+      <c r="T220">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>32</v>
       </c>
@@ -13036,8 +14374,14 @@
       <c r="R221">
         <v>210111.13137835599</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S221">
+        <v>29</v>
+      </c>
+      <c r="T221">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>32</v>
       </c>
@@ -13063,7 +14407,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="I222" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J222">
         <v>1.7999999999999999E-2</v>
@@ -13092,8 +14436,14 @@
       <c r="R222">
         <v>194755.48692500201</v>
       </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S222">
+        <v>29.8</v>
+      </c>
+      <c r="T222">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>32</v>
       </c>
@@ -13119,7 +14469,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="I223" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J223">
         <v>1.7000000000000001E-2</v>
@@ -13148,8 +14498,14 @@
       <c r="R223">
         <v>184782.46973989101</v>
       </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S223">
+        <v>27.8</v>
+      </c>
+      <c r="T223">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -13175,7 +14531,7 @@
         <v>0.09</v>
       </c>
       <c r="I224" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J224">
         <v>1.7999999999999999E-2</v>
@@ -13204,8 +14560,14 @@
       <c r="R224">
         <v>177941.811874623</v>
       </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S224">
+        <v>32.5</v>
+      </c>
+      <c r="T224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -13231,7 +14593,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I225" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J225">
         <v>1.7000000000000001E-2</v>
@@ -13260,8 +14622,14 @@
       <c r="R225">
         <v>173299.87754985699</v>
       </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S225">
+        <v>20</v>
+      </c>
+      <c r="T225">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -13316,8 +14684,14 @@
       <c r="R226">
         <v>434463.15534546197</v>
       </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S226">
+        <v>6.6</v>
+      </c>
+      <c r="T226">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -13372,8 +14746,14 @@
       <c r="R227">
         <v>398584.18320184998</v>
       </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S227">
+        <v>7</v>
+      </c>
+      <c r="T227">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -13428,8 +14808,14 @@
       <c r="R228">
         <v>359584.60942360503</v>
       </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S228">
+        <v>6.9</v>
+      </c>
+      <c r="T228">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -13455,7 +14841,7 @@
         <v>2E-3</v>
       </c>
       <c r="I229" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J229">
         <v>2.7E-2</v>
@@ -13484,8 +14870,14 @@
       <c r="R229">
         <v>342730.75530077203</v>
       </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S229">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -13508,10 +14900,10 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="H230" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I230" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J230">
         <v>2.5999999999999999E-2</v>
@@ -13540,8 +14932,14 @@
       <c r="R230">
         <v>325516.81332522799</v>
       </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S230">
+        <v>7.8</v>
+      </c>
+      <c r="T230">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>33</v>
       </c>
@@ -13564,10 +14962,10 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="H231" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I231" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J231">
         <v>2.5000000000000001E-2</v>
@@ -13596,8 +14994,14 @@
       <c r="R231">
         <v>305966.19245231</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S231">
+        <v>7.7</v>
+      </c>
+      <c r="T231">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>33</v>
       </c>
@@ -13620,10 +15024,10 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="H232" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I232" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J232">
         <v>2.5000000000000001E-2</v>
@@ -13652,8 +15056,14 @@
       <c r="R232">
         <v>289577.46479333902</v>
       </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S232">
+        <v>7.7</v>
+      </c>
+      <c r="T232">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>34</v>
       </c>
@@ -13708,8 +15118,14 @@
       <c r="R233">
         <v>305361.738528552</v>
       </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S233">
+        <v>14.7</v>
+      </c>
+      <c r="T233">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -13764,8 +15180,14 @@
       <c r="R234">
         <v>257268.96655152299</v>
       </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S234">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="T234">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>34</v>
       </c>
@@ -13820,8 +15242,14 @@
       <c r="R235">
         <v>218480.706369508</v>
       </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S235">
+        <v>13.8</v>
+      </c>
+      <c r="T235">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>34</v>
       </c>
@@ -13847,7 +15275,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I236" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J236">
         <v>2.5999999999999999E-2</v>
@@ -13876,8 +15304,14 @@
       <c r="R236">
         <v>202930.85187573</v>
       </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S236">
+        <v>12.8</v>
+      </c>
+      <c r="T236">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>34</v>
       </c>
@@ -13903,7 +15337,7 @@
         <v>0.01</v>
       </c>
       <c r="I237" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J237">
         <v>2.7E-2</v>
@@ -13932,8 +15366,14 @@
       <c r="R237">
         <v>191202.48678769401</v>
       </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S237">
+        <v>13.3</v>
+      </c>
+      <c r="T237">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>34</v>
       </c>
@@ -13959,7 +15399,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I238" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J238">
         <v>2.5999999999999999E-2</v>
@@ -13988,8 +15428,14 @@
       <c r="R238">
         <v>179093.96459737601</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S238">
+        <v>13.1</v>
+      </c>
+      <c r="T238">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>34</v>
       </c>
@@ -14015,7 +15461,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I239" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J239">
         <v>2.3E-2</v>
@@ -14044,8 +15490,14 @@
       <c r="R239">
         <v>169005.46517706601</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S239">
+        <v>12.7</v>
+      </c>
+      <c r="T239">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>35</v>
       </c>
@@ -14071,7 +15523,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="I240" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J240">
         <v>4.8000000000000001E-2</v>
@@ -14100,8 +15552,14 @@
       <c r="R240">
         <v>254157.734290783</v>
       </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S240">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T240">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>35</v>
       </c>
@@ -14127,7 +15585,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="I241" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J241">
         <v>4.3999999999999997E-2</v>
@@ -14156,8 +15614,14 @@
       <c r="R241">
         <v>237343.66448475301</v>
       </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S241">
+        <v>25.7</v>
+      </c>
+      <c r="T241">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>35</v>
       </c>
@@ -14212,8 +15676,14 @@
       <c r="R242">
         <v>226657.04818853</v>
       </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S242">
+        <v>14.5</v>
+      </c>
+      <c r="T242">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -14239,7 +15709,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="I243" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J243">
         <v>2.5999999999999999E-2</v>
@@ -14268,8 +15738,14 @@
       <c r="R243">
         <v>219687.75597424299</v>
       </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S243">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T243" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>35</v>
       </c>
@@ -14295,7 +15771,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I244" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J244">
         <v>2.4E-2</v>
@@ -14324,8 +15800,14 @@
       <c r="R244">
         <v>217442.173451879</v>
       </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S244">
+        <v>21.6</v>
+      </c>
+      <c r="T244" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>35</v>
       </c>
@@ -14351,7 +15833,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="I245" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J245">
         <v>1.7000000000000001E-2</v>
@@ -14380,8 +15862,14 @@
       <c r="R245">
         <v>221350.362395087</v>
       </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S245">
+        <v>27.6</v>
+      </c>
+      <c r="T245">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>35</v>
       </c>
@@ -14407,7 +15895,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I246" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J246">
         <v>2.4E-2</v>
@@ -14436,8 +15924,14 @@
       <c r="R246">
         <v>224900.47947545201</v>
       </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S246">
+        <v>21.4</v>
+      </c>
+      <c r="T246">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>36</v>
       </c>
@@ -14492,8 +15986,14 @@
       <c r="R247">
         <v>205121.065472116</v>
       </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S247">
+        <v>15.8</v>
+      </c>
+      <c r="T247">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -14548,8 +16048,14 @@
       <c r="R248">
         <v>185549.10607292599</v>
       </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S248">
+        <v>15.6</v>
+      </c>
+      <c r="T248">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>36</v>
       </c>
@@ -14604,8 +16110,14 @@
       <c r="R249">
         <v>162606.886158337</v>
       </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S249">
+        <v>14.8</v>
+      </c>
+      <c r="T249">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>36</v>
       </c>
@@ -14631,7 +16143,7 @@
         <v>1E-3</v>
       </c>
       <c r="I250" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J250">
         <v>2.8000000000000001E-2</v>
@@ -14660,8 +16172,14 @@
       <c r="R250">
         <v>151783.40839539299</v>
       </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S250">
+        <v>14.9</v>
+      </c>
+      <c r="T250">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>36</v>
       </c>
@@ -14684,10 +16202,10 @@
         <v>2.3E-2</v>
       </c>
       <c r="H251" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I251" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J251">
         <v>2.8000000000000001E-2</v>
@@ -14716,8 +16234,14 @@
       <c r="R251">
         <v>142975.050550582</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S251">
+        <v>16</v>
+      </c>
+      <c r="T251">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>36</v>
       </c>
@@ -14740,10 +16264,10 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H252" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I252" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J252">
         <v>2.8000000000000001E-2</v>
@@ -14772,8 +16296,14 @@
       <c r="R252">
         <v>134549.30786848499</v>
       </c>
-    </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S252">
+        <v>15.9</v>
+      </c>
+      <c r="T252">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -14796,10 +16326,10 @@
         <v>0.02</v>
       </c>
       <c r="H253" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I253" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J253">
         <v>2.5999999999999999E-2</v>
@@ -14828,8 +16358,14 @@
       <c r="R253">
         <v>128274.740276058</v>
       </c>
-    </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S253">
+        <v>12.9</v>
+      </c>
+      <c r="T253">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -14855,7 +16391,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I254" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J254">
         <v>9.1999999999999998E-2</v>
@@ -14884,8 +16420,14 @@
       <c r="R254">
         <v>189204.664823748</v>
       </c>
-    </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S254">
+        <v>15.7</v>
+      </c>
+      <c r="T254">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>37</v>
       </c>
@@ -14940,8 +16482,14 @@
       <c r="R255">
         <v>166334.835679382</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S255">
+        <v>24</v>
+      </c>
+      <c r="T255">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>37</v>
       </c>
@@ -14996,8 +16544,14 @@
       <c r="R256">
         <v>146439.87119590701</v>
       </c>
-    </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S256">
+        <v>24</v>
+      </c>
+      <c r="T256">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>37</v>
       </c>
@@ -15052,8 +16606,14 @@
       <c r="R257">
         <v>136523.44457313401</v>
       </c>
-    </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S257">
+        <v>22.4</v>
+      </c>
+      <c r="T257">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -15079,7 +16639,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="I258" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J258">
         <v>7.1999999999999995E-2</v>
@@ -15108,8 +16668,14 @@
       <c r="R258">
         <v>130984.79237498601</v>
       </c>
-    </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S258">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T258">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>37</v>
       </c>
@@ -15135,7 +16701,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="I259" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J259">
         <v>7.0999999999999994E-2</v>
@@ -15164,8 +16730,14 @@
       <c r="R259">
         <v>126374.756176615</v>
       </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S259">
+        <v>24.3</v>
+      </c>
+      <c r="T259">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>37</v>
       </c>
@@ -15191,7 +16763,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="I260" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J260">
         <v>7.1999999999999995E-2</v>
@@ -15220,8 +16792,14 @@
       <c r="R260">
         <v>123018.342109037</v>
       </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S260">
+        <v>22.5</v>
+      </c>
+      <c r="T260">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>38</v>
       </c>
@@ -15276,8 +16854,14 @@
       <c r="R261">
         <v>496733.32301624003</v>
       </c>
-    </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S261">
+        <v>19.7</v>
+      </c>
+      <c r="T261">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>38</v>
       </c>
@@ -15332,8 +16916,14 @@
       <c r="R262">
         <v>444419.190468974</v>
       </c>
-    </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S262">
+        <v>17.2</v>
+      </c>
+      <c r="T262">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>38</v>
       </c>
@@ -15388,8 +16978,14 @@
       <c r="R263">
         <v>379437.87730900198</v>
       </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S263">
+        <v>18.5</v>
+      </c>
+      <c r="T263">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>38</v>
       </c>
@@ -15444,8 +17040,14 @@
       <c r="R264">
         <v>357568.71819999698</v>
       </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S264">
+        <v>21.4</v>
+      </c>
+      <c r="T264">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>38</v>
       </c>
@@ -15471,7 +17073,7 @@
         <v>0.01</v>
       </c>
       <c r="I265" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J265">
         <v>3.7999999999999999E-2</v>
@@ -15500,8 +17102,14 @@
       <c r="R265">
         <v>344125.25318334799</v>
       </c>
-    </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S265">
+        <v>22.6</v>
+      </c>
+      <c r="T265">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>38</v>
       </c>
@@ -15527,7 +17135,7 @@
         <v>0.01</v>
       </c>
       <c r="I266" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J266">
         <v>3.7999999999999999E-2</v>
@@ -15556,8 +17164,14 @@
       <c r="R266">
         <v>321815.23374923202</v>
       </c>
-    </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S266">
+        <v>19</v>
+      </c>
+      <c r="T266">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>38</v>
       </c>
@@ -15583,7 +17197,7 @@
         <v>0.01</v>
       </c>
       <c r="I267" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J267">
         <v>3.6999999999999998E-2</v>
@@ -15612,8 +17226,14 @@
       <c r="R267">
         <v>293495.95214969502</v>
       </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S267">
+        <v>17.3</v>
+      </c>
+      <c r="T267">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>39</v>
       </c>
@@ -15639,7 +17259,7 @@
         <v>1E-3</v>
       </c>
       <c r="I268" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J268">
         <v>4.4999999999999998E-2</v>
@@ -15668,8 +17288,14 @@
       <c r="R268">
         <v>247174.41058572801</v>
       </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S268">
+        <v>12.3</v>
+      </c>
+      <c r="T268">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>39</v>
       </c>
@@ -15695,7 +17321,7 @@
         <v>1E-3</v>
       </c>
       <c r="I269" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J269">
         <v>4.2999999999999997E-2</v>
@@ -15724,8 +17350,14 @@
       <c r="R269">
         <v>226270.98459953599</v>
       </c>
-    </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S269">
+        <v>12.8</v>
+      </c>
+      <c r="T269">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>39</v>
       </c>
@@ -15780,8 +17412,14 @@
       <c r="R270">
         <v>200400.76602212401</v>
       </c>
-    </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S270">
+        <v>11.4</v>
+      </c>
+      <c r="T270">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -15807,7 +17445,7 @@
         <v>1E-3</v>
       </c>
       <c r="I271" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J271">
         <v>2.3E-2</v>
@@ -15836,8 +17474,14 @@
       <c r="R271">
         <v>187792.24800438501</v>
       </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S271">
+        <v>11.5</v>
+      </c>
+      <c r="T271">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -15860,10 +17504,10 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H272" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I272" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J272">
         <v>2.1999999999999999E-2</v>
@@ -15892,8 +17536,14 @@
       <c r="R272">
         <v>180184.74270713</v>
       </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S272">
+        <v>14</v>
+      </c>
+      <c r="T272">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -15916,10 +17566,10 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H273" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I273" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J273">
         <v>0.02</v>
@@ -15948,8 +17598,14 @@
       <c r="R273">
         <v>171916.22740217601</v>
       </c>
-    </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S273">
+        <v>15.4</v>
+      </c>
+      <c r="T273">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -15972,10 +17628,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="H274" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I274" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J274">
         <v>0.02</v>
@@ -16004,8 +17660,14 @@
       <c r="R274">
         <v>165788.69426623199</v>
       </c>
-    </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S274">
+        <v>13.5</v>
+      </c>
+      <c r="T274">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>40</v>
       </c>
@@ -16028,10 +17690,10 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H275" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I275" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J275">
         <v>6.2E-2</v>
@@ -16060,8 +17722,14 @@
       <c r="R275">
         <v>407270.541279233</v>
       </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S275" t="s">
+        <v>87</v>
+      </c>
+      <c r="T275">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -16087,7 +17755,7 @@
         <v>2E-3</v>
       </c>
       <c r="I276" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J276">
         <v>0.06</v>
@@ -16116,8 +17784,14 @@
       <c r="R276">
         <v>363368.61686070502</v>
       </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S276">
+        <v>9.4</v>
+      </c>
+      <c r="T276">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>40</v>
       </c>
@@ -16172,8 +17846,14 @@
       <c r="R277">
         <v>312834.28953292599</v>
       </c>
-    </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S277" t="s">
+        <v>87</v>
+      </c>
+      <c r="T277">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>40</v>
       </c>
@@ -16199,7 +17879,7 @@
         <v>2E-3</v>
       </c>
       <c r="I278" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J278">
         <v>3.3000000000000002E-2</v>
@@ -16228,8 +17908,14 @@
       <c r="R278">
         <v>293561.85760802799</v>
       </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S278" t="s">
+        <v>87</v>
+      </c>
+      <c r="T278">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>40</v>
       </c>
@@ -16252,10 +17938,10 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H279" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I279" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J279">
         <v>3.1E-2</v>
@@ -16284,8 +17970,14 @@
       <c r="R279">
         <v>283383.72062587598</v>
       </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S279" t="s">
+        <v>87</v>
+      </c>
+      <c r="T279">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>40</v>
       </c>
@@ -16308,10 +18000,10 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H280" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I280" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J280">
         <v>0.03</v>
@@ -16340,8 +18032,14 @@
       <c r="R280">
         <v>264991.86649676901</v>
       </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S280">
+        <v>11.2</v>
+      </c>
+      <c r="T280">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>40</v>
       </c>
@@ -16364,10 +18062,10 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="H281" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I281" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J281">
         <v>2.8000000000000001E-2</v>
@@ -16396,8 +18094,14 @@
       <c r="R281">
         <v>246941.080390271</v>
       </c>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S281">
+        <v>7.2</v>
+      </c>
+      <c r="T281">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>41</v>
       </c>
@@ -16423,7 +18127,7 @@
         <v>2E-3</v>
       </c>
       <c r="I282" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J282">
         <v>4.1000000000000002E-2</v>
@@ -16452,8 +18156,14 @@
       <c r="R282">
         <v>274216.27391333901</v>
       </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S282">
+        <v>13.8</v>
+      </c>
+      <c r="T282">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>41</v>
       </c>
@@ -16479,7 +18189,7 @@
         <v>2E-3</v>
       </c>
       <c r="I283" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J283">
         <v>4.2999999999999997E-2</v>
@@ -16508,8 +18218,14 @@
       <c r="R283">
         <v>232083.03411595701</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S283">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="T283">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -16564,8 +18280,14 @@
       <c r="R284">
         <v>201628.27695202001</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S284">
+        <v>20.5</v>
+      </c>
+      <c r="T284">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>41</v>
       </c>
@@ -16591,7 +18313,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I285" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J285">
         <v>2.1999999999999999E-2</v>
@@ -16620,8 +18342,14 @@
       <c r="R285">
         <v>188719.99637674401</v>
       </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S285">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="T285">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -16644,10 +18372,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="H286" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J286">
         <v>2.1999999999999999E-2</v>
@@ -16676,8 +18404,14 @@
       <c r="R286">
         <v>179330.05783730699</v>
       </c>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S286">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T286">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>41</v>
       </c>
@@ -16700,10 +18434,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H287" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I287" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J287">
         <v>0.02</v>
@@ -16732,8 +18466,14 @@
       <c r="R287">
         <v>169454.51915339101</v>
       </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S287">
+        <v>14.9</v>
+      </c>
+      <c r="T287">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>41</v>
       </c>
@@ -16756,10 +18496,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H288" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I288" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J288">
         <v>2.1000000000000001E-2</v>
@@ -16788,8 +18528,14 @@
       <c r="R288">
         <v>161701.44545880699</v>
       </c>
-    </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S288">
+        <v>16</v>
+      </c>
+      <c r="T288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>42</v>
       </c>
@@ -16815,7 +18561,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="I289" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J289">
         <v>4.4999999999999998E-2</v>
@@ -16844,8 +18590,14 @@
       <c r="R289">
         <v>290866.70450064499</v>
       </c>
-    </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S289">
+        <v>35.4</v>
+      </c>
+      <c r="T289">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>42</v>
       </c>
@@ -16871,7 +18623,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="I290" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J290">
         <v>4.4999999999999998E-2</v>
@@ -16900,8 +18652,14 @@
       <c r="R290">
         <v>251845.99527675199</v>
       </c>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S290">
+        <v>42.4</v>
+      </c>
+      <c r="T290" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>42</v>
       </c>
@@ -16956,8 +18714,14 @@
       <c r="R291">
         <v>221331.47599811299</v>
       </c>
-    </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S291">
+        <v>29.6</v>
+      </c>
+      <c r="T291">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>42</v>
       </c>
@@ -16983,7 +18747,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I292" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J292">
         <v>2.4E-2</v>
@@ -17012,8 +18776,14 @@
       <c r="R292">
         <v>208272.39378000601</v>
       </c>
-    </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S292">
+        <v>36.9</v>
+      </c>
+      <c r="T292">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -17039,7 +18809,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I293" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J293">
         <v>2.5000000000000001E-2</v>
@@ -17068,8 +18838,14 @@
       <c r="R293">
         <v>198422.36038472399</v>
       </c>
-    </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S293">
+        <v>30.7</v>
+      </c>
+      <c r="T293">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -17095,7 +18871,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I294" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J294">
         <v>2.1999999999999999E-2</v>
@@ -17124,8 +18900,14 @@
       <c r="R294">
         <v>189437.62546712099</v>
       </c>
-    </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S294">
+        <v>31</v>
+      </c>
+      <c r="T294" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>42</v>
       </c>
@@ -17151,7 +18933,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="I295" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J295">
         <v>0.02</v>
@@ -17180,8 +18962,14 @@
       <c r="R295">
         <v>181737.233202598</v>
       </c>
-    </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S295">
+        <v>27.9</v>
+      </c>
+      <c r="T295" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>43</v>
       </c>
@@ -17236,8 +19024,14 @@
       <c r="R296">
         <v>297733.910033266</v>
       </c>
-    </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S296">
+        <v>16.2</v>
+      </c>
+      <c r="T296">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>43</v>
       </c>
@@ -17263,7 +19057,7 @@
         <v>1E-3</v>
       </c>
       <c r="I297" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J297">
         <v>4.8000000000000001E-2</v>
@@ -17292,8 +19086,14 @@
       <c r="R297">
         <v>249966.92713541901</v>
       </c>
-    </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S297">
+        <v>16.5</v>
+      </c>
+      <c r="T297">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>43</v>
       </c>
@@ -17348,8 +19148,14 @@
       <c r="R298">
         <v>214528.53279358099</v>
       </c>
-    </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S298">
+        <v>15.4</v>
+      </c>
+      <c r="T298">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>43</v>
       </c>
@@ -17375,7 +19181,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I299" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J299">
         <v>2.1999999999999999E-2</v>
@@ -17404,8 +19210,14 @@
       <c r="R299">
         <v>197744.871932704</v>
       </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S299">
+        <v>15.5</v>
+      </c>
+      <c r="T299">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>43</v>
       </c>
@@ -17428,10 +19240,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H300" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I300" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J300">
         <v>2.1999999999999999E-2</v>
@@ -17460,8 +19272,14 @@
       <c r="R300">
         <v>184810.40383451199</v>
       </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S300">
+        <v>14.7</v>
+      </c>
+      <c r="T300">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>43</v>
       </c>
@@ -17484,10 +19302,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H301" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I301" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J301">
         <v>2.1000000000000001E-2</v>
@@ -17516,8 +19334,14 @@
       <c r="R301">
         <v>172208.95849325301</v>
       </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S301">
+        <v>14.9</v>
+      </c>
+      <c r="T301">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>43</v>
       </c>
@@ -17540,10 +19364,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H302" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I302" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J302">
         <v>1.9E-2</v>
@@ -17572,8 +19396,14 @@
       <c r="R302">
         <v>160104.05110442601</v>
       </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S302">
+        <v>14</v>
+      </c>
+      <c r="T302">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>44</v>
       </c>
@@ -17628,8 +19458,14 @@
       <c r="R303">
         <v>298431.82758262102</v>
       </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S303">
+        <v>16</v>
+      </c>
+      <c r="T303">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>44</v>
       </c>
@@ -17684,8 +19520,14 @@
       <c r="R304">
         <v>253290.688042386</v>
       </c>
-    </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S304">
+        <v>16.7</v>
+      </c>
+      <c r="T304">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>44</v>
       </c>
@@ -17740,8 +19582,14 @@
       <c r="R305">
         <v>220966.25297935901</v>
       </c>
-    </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S305">
+        <v>16</v>
+      </c>
+      <c r="T305">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>44</v>
       </c>
@@ -17796,8 +19644,14 @@
       <c r="R306">
         <v>209784.661950315</v>
       </c>
-    </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S306">
+        <v>15.2</v>
+      </c>
+      <c r="T306">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>44</v>
       </c>
@@ -17820,10 +19674,10 @@
         <v>0.05</v>
       </c>
       <c r="H307" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I307" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J307">
         <v>1.9E-2</v>
@@ -17852,8 +19706,14 @@
       <c r="R307">
         <v>200646.52527213399</v>
       </c>
-    </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S307">
+        <v>14.3</v>
+      </c>
+      <c r="T307">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>44</v>
       </c>
@@ -17876,10 +19736,10 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="H308" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I308" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J308">
         <v>1.7999999999999999E-2</v>
@@ -17908,8 +19768,14 @@
       <c r="R308">
         <v>188880.94980645899</v>
       </c>
-    </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S308">
+        <v>15.2</v>
+      </c>
+      <c r="T308">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>44</v>
       </c>
@@ -17932,10 +19798,10 @@
         <v>4.7E-2</v>
       </c>
       <c r="H309" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I309" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J309">
         <v>1.7999999999999999E-2</v>
@@ -17964,8 +19830,14 @@
       <c r="R309">
         <v>177245.58156180999</v>
       </c>
-    </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S309">
+        <v>13.4</v>
+      </c>
+      <c r="T309">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>45</v>
       </c>
@@ -18020,8 +19892,14 @@
       <c r="R310">
         <v>527624.79265266901</v>
       </c>
-    </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S310">
+        <v>21.1</v>
+      </c>
+      <c r="T310">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>45</v>
       </c>
@@ -18076,8 +19954,14 @@
       <c r="R311">
         <v>450383.87075464299</v>
       </c>
-    </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S311">
+        <v>21.2</v>
+      </c>
+      <c r="T311">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>45</v>
       </c>
@@ -18132,8 +20016,14 @@
       <c r="R312">
         <v>366694.00761122402</v>
       </c>
-    </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S312">
+        <v>22</v>
+      </c>
+      <c r="T312">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>45</v>
       </c>
@@ -18188,8 +20078,14 @@
       <c r="R313">
         <v>336610.80708147603</v>
       </c>
-    </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S313">
+        <v>26.4</v>
+      </c>
+      <c r="T313">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>45</v>
       </c>
@@ -18244,8 +20140,14 @@
       <c r="R314">
         <v>312339.57349749102</v>
       </c>
-    </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S314">
+        <v>23.5</v>
+      </c>
+      <c r="T314">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>45</v>
       </c>
@@ -18300,8 +20202,14 @@
       <c r="R315">
         <v>285466.63191517699</v>
       </c>
-    </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S315">
+        <v>25</v>
+      </c>
+      <c r="T315">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>45</v>
       </c>
@@ -18356,8 +20264,14 @@
       <c r="R316">
         <v>262777.51878803398</v>
       </c>
-    </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S316">
+        <v>20.6</v>
+      </c>
+      <c r="T316">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>46</v>
       </c>
@@ -18380,10 +20294,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H317" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I317" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J317">
         <v>4.9000000000000002E-2</v>
@@ -18412,8 +20326,14 @@
       <c r="R317">
         <v>363019.31686899799</v>
       </c>
-    </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S317">
+        <v>14.9</v>
+      </c>
+      <c r="T317">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>46</v>
       </c>
@@ -18436,10 +20356,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H318" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I318" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J318">
         <v>4.3999999999999997E-2</v>
@@ -18468,8 +20388,14 @@
       <c r="R318">
         <v>320137.23352137097</v>
       </c>
-    </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S318">
+        <v>12.5</v>
+      </c>
+      <c r="T318">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>46</v>
       </c>
@@ -18524,8 +20450,14 @@
       <c r="R319">
         <v>277080.27462709299</v>
       </c>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S319">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T319" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>46</v>
       </c>
@@ -18551,7 +20483,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I320" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J320">
         <v>0.02</v>
@@ -18580,8 +20512,14 @@
       <c r="R320">
         <v>262325.70306178997</v>
       </c>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S320">
+        <v>12.7</v>
+      </c>
+      <c r="T320" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>46</v>
       </c>
@@ -18604,10 +20542,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="H321" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I321" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J321">
         <v>1.9E-2</v>
@@ -18636,8 +20574,14 @@
       <c r="R321">
         <v>255729.69668635601</v>
       </c>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S321">
+        <v>14.7</v>
+      </c>
+      <c r="T321" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>46</v>
       </c>
@@ -18660,10 +20604,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H322" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I322" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J322">
         <v>0.02</v>
@@ -18692,8 +20636,14 @@
       <c r="R322">
         <v>245043.498840691</v>
       </c>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S322">
+        <v>15.9</v>
+      </c>
+      <c r="T322">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>46</v>
       </c>
@@ -18719,7 +20669,7 @@
         <v>0.01</v>
       </c>
       <c r="I323" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J323">
         <v>2.3E-2</v>
@@ -18748,8 +20698,14 @@
       <c r="R323">
         <v>234555.11171158799</v>
       </c>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S323">
+        <v>12.3</v>
+      </c>
+      <c r="T323" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>47</v>
       </c>
@@ -18804,8 +20760,14 @@
       <c r="R324">
         <v>355529.98207341402</v>
       </c>
-    </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S324">
+        <v>15.3</v>
+      </c>
+      <c r="T324">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>47</v>
       </c>
@@ -18860,8 +20822,14 @@
       <c r="R325">
         <v>323129.42565080401</v>
       </c>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S325">
+        <v>17.2</v>
+      </c>
+      <c r="T325">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -18916,8 +20884,14 @@
       <c r="R326">
         <v>287445.57253695501</v>
       </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S326">
+        <v>16.7</v>
+      </c>
+      <c r="T326">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>47</v>
       </c>
@@ -18943,7 +20917,7 @@
         <v>2E-3</v>
       </c>
       <c r="I327" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J327">
         <v>3.3000000000000002E-2</v>
@@ -18972,8 +20946,14 @@
       <c r="R327">
         <v>271844.516864768</v>
       </c>
-    </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S327">
+        <v>14.3</v>
+      </c>
+      <c r="T327">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>47</v>
       </c>
@@ -18996,10 +20976,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="H328" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I328" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J328">
         <v>3.5999999999999997E-2</v>
@@ -19028,8 +21008,14 @@
       <c r="R328">
         <v>262096.84271191101</v>
       </c>
-    </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S328">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T328">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>47</v>
       </c>
@@ -19052,10 +21038,10 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="H329" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I329" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J329">
         <v>3.5000000000000003E-2</v>
@@ -19084,8 +21070,14 @@
       <c r="R329">
         <v>252704.69256371001</v>
       </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S329">
+        <v>14.5</v>
+      </c>
+      <c r="T329">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>47</v>
       </c>
@@ -19108,10 +21100,10 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H330" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I330" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J330">
         <v>3.4000000000000002E-2</v>
@@ -19140,8 +21132,14 @@
       <c r="R330">
         <v>244112.756019372</v>
       </c>
-    </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S330">
+        <v>14.2</v>
+      </c>
+      <c r="T330">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>48</v>
       </c>
@@ -19196,8 +21194,14 @@
       <c r="R331">
         <v>581736.23843600706</v>
       </c>
-    </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S331">
+        <v>14.2</v>
+      </c>
+      <c r="T331">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>48</v>
       </c>
@@ -19252,8 +21256,14 @@
       <c r="R332">
         <v>511119.29623809899</v>
       </c>
-    </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S332">
+        <v>19</v>
+      </c>
+      <c r="T332">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>48</v>
       </c>
@@ -19308,8 +21318,14 @@
       <c r="R333">
         <v>429989.67449508602</v>
       </c>
-    </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S333">
+        <v>16.5</v>
+      </c>
+      <c r="T333">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>48</v>
       </c>
@@ -19364,8 +21380,14 @@
       <c r="R334">
         <v>395550.86361447099</v>
       </c>
-    </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S334">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="T334">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>48</v>
       </c>
@@ -19420,8 +21442,14 @@
       <c r="R335">
         <v>375950.116649559</v>
       </c>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S335">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="T335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>48</v>
       </c>
@@ -19476,8 +21504,14 @@
       <c r="R336">
         <v>340521.364912797</v>
       </c>
-    </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S336">
+        <v>21.5</v>
+      </c>
+      <c r="T336">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>48</v>
       </c>
@@ -19532,8 +21566,14 @@
       <c r="R337">
         <v>306855.03447547898</v>
       </c>
-    </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S337">
+        <v>16.8</v>
+      </c>
+      <c r="T337">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>49</v>
       </c>
@@ -19556,10 +21596,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H338" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I338" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J338">
         <v>0.04</v>
@@ -19588,8 +21628,14 @@
       <c r="R338">
         <v>152622.34603225999</v>
       </c>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S338">
+        <v>17</v>
+      </c>
+      <c r="T338">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>49</v>
       </c>
@@ -19612,10 +21658,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H339" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I339" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J339">
         <v>4.2999999999999997E-2</v>
@@ -19644,8 +21690,14 @@
       <c r="R339">
         <v>140478.17968219201</v>
       </c>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S339">
+        <v>19.3</v>
+      </c>
+      <c r="T339">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>49</v>
       </c>
@@ -19700,8 +21752,14 @@
       <c r="R340">
         <v>123764.93170707001</v>
       </c>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S340">
+        <v>18.5</v>
+      </c>
+      <c r="T340">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>49</v>
       </c>
@@ -19727,7 +21785,7 @@
         <v>2E-3</v>
       </c>
       <c r="I341" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J341">
         <v>1.7999999999999999E-2</v>
@@ -19756,8 +21814,14 @@
       <c r="R341">
         <v>118521.222482339</v>
       </c>
-    </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S341">
+        <v>17.5</v>
+      </c>
+      <c r="T341">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>49</v>
       </c>
@@ -19780,10 +21844,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H342" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I342" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J342">
         <v>1.7999999999999999E-2</v>
@@ -19812,8 +21876,14 @@
       <c r="R342">
         <v>115875.906867982</v>
       </c>
-    </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S342">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="T342">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>49</v>
       </c>
@@ -19836,10 +21906,10 @@
         <v>0.01</v>
       </c>
       <c r="H343" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I343" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J343">
         <v>1.6E-2</v>
@@ -19868,8 +21938,14 @@
       <c r="R343">
         <v>112069.12115361101</v>
       </c>
-    </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S343">
+        <v>14.3</v>
+      </c>
+      <c r="T343">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>49</v>
       </c>
@@ -19892,10 +21968,10 @@
         <v>0.01</v>
       </c>
       <c r="H344" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I344" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J344">
         <v>1.9E-2</v>
@@ -19924,8 +22000,14 @@
       <c r="R344">
         <v>111124.96566584401</v>
       </c>
-    </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S344">
+        <v>14.5</v>
+      </c>
+      <c r="T344">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>50</v>
       </c>
@@ -19951,7 +22033,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I345" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J345">
         <v>4.1000000000000002E-2</v>
@@ -19980,8 +22062,14 @@
       <c r="R345">
         <v>271266.06824778399</v>
       </c>
-    </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S345">
+        <v>14.6</v>
+      </c>
+      <c r="T345">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>50</v>
       </c>
@@ -20007,7 +22095,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I346" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J346">
         <v>3.9E-2</v>
@@ -20036,8 +22124,14 @@
       <c r="R346">
         <v>247049.33717576999</v>
       </c>
-    </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S346">
+        <v>16.5</v>
+      </c>
+      <c r="T346">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>50</v>
       </c>
@@ -20092,8 +22186,14 @@
       <c r="R347">
         <v>218548.44358153001</v>
       </c>
-    </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S347">
+        <v>15.9</v>
+      </c>
+      <c r="T347">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>50</v>
       </c>
@@ -20119,7 +22219,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I348" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J348">
         <v>0.02</v>
@@ -20148,8 +22248,14 @@
       <c r="R348">
         <v>204646.69240383501</v>
       </c>
-    </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S348">
+        <v>14.6</v>
+      </c>
+      <c r="T348">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>50</v>
       </c>
@@ -20175,7 +22281,7 @@
         <v>0.01</v>
       </c>
       <c r="I349" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J349">
         <v>2.1000000000000001E-2</v>
@@ -20204,8 +22310,14 @@
       <c r="R349">
         <v>192541.30111573101</v>
       </c>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S349">
+        <v>13.3</v>
+      </c>
+      <c r="T349">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>50</v>
       </c>
@@ -20231,7 +22343,7 @@
         <v>0.01</v>
       </c>
       <c r="I350" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J350">
         <v>2.1000000000000001E-2</v>
@@ -20260,8 +22372,14 @@
       <c r="R350">
         <v>181046.32302997701</v>
       </c>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S350">
+        <v>14.6</v>
+      </c>
+      <c r="T350">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>50</v>
       </c>
@@ -20287,7 +22405,7 @@
         <v>0.01</v>
       </c>
       <c r="I351" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J351">
         <v>1.9E-2</v>
@@ -20316,8 +22434,14 @@
       <c r="R351">
         <v>171104.82836219601</v>
       </c>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S351">
+        <v>17.8</v>
+      </c>
+      <c r="T351">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>51</v>
       </c>
@@ -20343,7 +22467,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="I352" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J352">
         <v>4.2999999999999997E-2</v>
@@ -20372,8 +22496,14 @@
       <c r="R352">
         <v>326797.515560047</v>
       </c>
-    </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S352">
+        <v>33.1</v>
+      </c>
+      <c r="T352" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>51</v>
       </c>
@@ -20399,7 +22529,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I353" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J353">
         <v>4.8000000000000001E-2</v>
@@ -20428,8 +22558,14 @@
       <c r="R353">
         <v>295169.99443979398</v>
       </c>
-    </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S353">
+        <v>44.8</v>
+      </c>
+      <c r="T353">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>51</v>
       </c>
@@ -20484,8 +22620,14 @@
       <c r="R354">
         <v>268151.03792211402</v>
       </c>
-    </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S354">
+        <v>29.2</v>
+      </c>
+      <c r="T354" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>51</v>
       </c>
@@ -20511,7 +22653,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I355" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J355">
         <v>2.1000000000000001E-2</v>
@@ -20540,8 +22682,14 @@
       <c r="R355">
         <v>251972.978711428</v>
       </c>
-    </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S355">
+        <v>28.2</v>
+      </c>
+      <c r="T355" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>51</v>
       </c>
@@ -20567,7 +22715,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="I356" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J356">
         <v>0.02</v>
@@ -20596,8 +22744,14 @@
       <c r="R356">
         <v>241117.57291783701</v>
       </c>
-    </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S356">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="T356" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>51</v>
       </c>
@@ -20623,7 +22777,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I357" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J357">
         <v>0.02</v>
@@ -20652,8 +22806,14 @@
       <c r="R357">
         <v>237261.11273731801</v>
       </c>
-    </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S357">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="T357" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>51</v>
       </c>
@@ -20679,7 +22839,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="I358" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J358">
         <v>1.7999999999999999E-2</v>
@@ -20707,6 +22867,12 @@
       </c>
       <c r="R358">
         <v>236396.98483092501</v>
+      </c>
+      <c r="S358">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="T358">
+        <v>19.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -20716,7 +22882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362CB08E-1FC2-45DA-9B81-E7282AB1B65C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20738,92 +22904,197 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D17" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/combined_state_demo_data_2016_2022.xlsx
+++ b/data/combined_state_demo_data_2016_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam McMahon\Desktop\General Assembly\Data Science Immersive\dsb-826\Projects\youth_crime_group_project - Copy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam McMahon\Desktop\General Assembly\Data Science Immersive\dsb-826\Projects\project-4\data\2016-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74389A66-79CE-4A98-BDB4-0E9989B16B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B3468-0C5E-45C2-B975-FA59228E28C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{D1250671-9D55-4F94-A1F9-874AE8287DF1}"/>
+    <workbookView xWindow="17850" yWindow="5025" windowWidth="13785" windowHeight="6000" xr2:uid="{D1250671-9D55-4F94-A1F9-874AE8287DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="105">
   <si>
     <t>state</t>
   </si>
@@ -314,6 +314,33 @@
   </si>
   <si>
     <t>https://wonder.cdc.gov/wonder/help/mcd-expanded.html</t>
+  </si>
+  <si>
+    <t>Persons Unemployed 15 Weeks or Longer, as a Percent of the Civilian Labor Force, 4-Quarter Moving Average, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Unemployment Rate Percent, Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Labor Statistics, Persons Unemployed 15 Weeks or Longer, as a Percent of the Civilian Labor Force for Alabama [U1UNEM1AL], retrieved from FRED, Federal Reserve Bank of St. Louis; https://fred.stlouisfed.org/series/U1UNEM1AL, October 30, 2024.</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Labor Statistics, Unemployment Rate in Alabama [ALUR], retrieved from FRED, Federal Reserve Bank of St. Louis; https://fred.stlouisfed.org/series/ALUR, October 30, 2024.</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/U1UNEM1AL</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/ALUR</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau, Bachelor's Degree or Higher for Alabama [GCT1502AL], retrieved from FRED, Federal Reserve Bank of St. Louis; https://fred.stlouisfed.org/series/GCT1502AL, October 30, 2024.</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/GCT1502AL</t>
+  </si>
+  <si>
+    <t>Estimate of educational attainment for population 18 years old and over whose highest degree was a bachelor's, master's, or professional or doctorate degree (ACS variable S1501_C02_015E from table S1501).</t>
   </si>
 </sst>
 </file>
@@ -23016,11 +23043,29 @@
       <c r="A12" t="s">
         <v>53</v>
       </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -23053,6 +23098,15 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
